--- a/DOCUMENT/Protokoll.xlsx
+++ b/DOCUMENT/Protokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justuskramer/Library/Mobile Documents/com~apple~CloudDocs/Schule/Informatik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justuskramer/Documents/GitHub/netzwerkmalen/DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF76DE-6347-FC44-8A15-E7B68CA6A869}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07490A-A778-3D4D-AAB4-313209CC83B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2A41DBBA-9A47-B349-BD70-0A2684E61C5F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{2A41DBBA-9A47-B349-BD70-0A2684E61C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Wartet</t>
   </si>
   <si>
-    <t xml:space="preserve">Verbindet </t>
-  </si>
-  <si>
     <r>
       <t>Begrüßung:</t>
     </r>
@@ -681,6 +678,9 @@
       </rPr>
       <t>" sendet:"</t>
     </r>
+  </si>
+  <si>
+    <t>Verbindet (mir name)</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1099,6 +1099,7 @@
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="72.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1115,12 +1116,12 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17" thickBot="1">
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1130,34 +1131,34 @@
     </row>
     <row r="4" spans="2:7" ht="17" thickTop="1">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17" thickBot="1">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="17" thickTop="1">
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1170,56 +1171,56 @@
     </row>
     <row r="13" spans="2:7">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="17" thickBot="1">
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1229,52 +1230,52 @@
     <row r="25" spans="2:7" ht="17" thickTop="1"/>
     <row r="26" spans="2:7">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="G31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="G36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1">
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
